--- a/tests/data/mround_test_data.xlsx
+++ b/tests/data/mround_test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snheng/Documents/GitHub/pefc/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613B87E-6CC8-E042-93BE-271A8D97F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663EF13E-79B5-394C-89BD-81BA2AB063DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="740" windowWidth="28920" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1173,7 @@
     <col min="6" max="6" width="3.6640625" customWidth="1"/>
     <col min="12" max="12" width="3.6640625" customWidth="1"/>
     <col min="18" max="18" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -4974,9 +4974,12 @@
         <f>MROUND(-0.44097222,-0.01041666)</f>
         <v>-0.43749971999999998</v>
       </c>
-      <c r="T72" s="4">
-        <f>S72</f>
-        <v>-0.43749971999999998</v>
+      <c r="T72" s="4"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S74">
+        <f>MROUND(7.1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="21" x14ac:dyDescent="0.25">
